--- a/db/Materia.xlsx
+++ b/db/Materia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\Posgrado\Proyecto Titulacion\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PosGrado\Proyecto Titulacion\Timetabling\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D070976A-6584-4129-B5F1-CF18E6FE8729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A70D73-3D96-4F99-AF78-C01909FE9452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{73FF22F9-0A89-43F3-8B4B-2BA89E274F19}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{73FF22F9-0A89-43F3-8B4B-2BA89E274F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,9 +42,6 @@
     <t>nombre_materia</t>
   </si>
   <si>
-    <t>dia_fijo</t>
-  </si>
-  <si>
     <t>horas_semanales_tipicas</t>
   </si>
   <si>
@@ -60,13 +55,16 @@
   </si>
   <si>
     <t>Ritmica</t>
+  </si>
+  <si>
+    <t>Tipo de materia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,16 +432,17 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,30 +450,30 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="3" spans="1:4">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="4" spans="1:4">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+    <row r="5" spans="1:4">
+      <c r="B5" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/db/Materia.xlsx
+++ b/db/Materia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PosGrado\Proyecto Titulacion\Timetabling\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A70D73-3D96-4F99-AF78-C01909FE9452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5BB8EE-EACC-4C89-9570-AF8FADE80E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{73FF22F9-0A89-43F3-8B4B-2BA89E274F19}"/>
+    <workbookView xWindow="3000" yWindow="4710" windowWidth="28785" windowHeight="15345" xr2:uid="{73FF22F9-0A89-43F3-8B4B-2BA89E274F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="49">
   <si>
     <t>materia_id</t>
   </si>
@@ -45,19 +45,142 @@
     <t>horas_semanales_tipicas</t>
   </si>
   <si>
-    <t>Canto</t>
-  </si>
-  <si>
     <t>Teclado</t>
   </si>
   <si>
-    <t>Creatividad</t>
-  </si>
-  <si>
-    <t>Ritmica</t>
-  </si>
-  <si>
     <t>Tipo de materia</t>
+  </si>
+  <si>
+    <t>CA-IC-001</t>
+  </si>
+  <si>
+    <t>AM-IC-001</t>
+  </si>
+  <si>
+    <t>Canto Infantil</t>
+  </si>
+  <si>
+    <t>CI-IC-001</t>
+  </si>
+  <si>
+    <t>TC-IC-001</t>
+  </si>
+  <si>
+    <t>RT-IC-001</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>__________</t>
+  </si>
+  <si>
+    <t>RT-IC-002</t>
+  </si>
+  <si>
+    <t>Ritmica Infantil</t>
+  </si>
+  <si>
+    <t>TC-IC-002</t>
+  </si>
+  <si>
+    <t>CA-IC-002</t>
+  </si>
+  <si>
+    <t>Creatividad Artistica</t>
+  </si>
+  <si>
+    <t>AM-IC-002</t>
+  </si>
+  <si>
+    <t>Apreciacion Musical</t>
+  </si>
+  <si>
+    <t>CI-IC-002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teclado </t>
+  </si>
+  <si>
+    <t>RT-IC-003</t>
+  </si>
+  <si>
+    <t>TC-IC-003</t>
+  </si>
+  <si>
+    <t>DI-IC-001</t>
+  </si>
+  <si>
+    <t>Desarrollo Intelectual</t>
+  </si>
+  <si>
+    <t>AM-IC-003</t>
+  </si>
+  <si>
+    <t>CI-IC-003</t>
+  </si>
+  <si>
+    <t>Flauta Dulce</t>
+  </si>
+  <si>
+    <t>FD-IC-001</t>
+  </si>
+  <si>
+    <t>SR-INC-001</t>
+  </si>
+  <si>
+    <t>Solfeo-Ritmica</t>
+  </si>
+  <si>
+    <t>Lecto-Escritura</t>
+  </si>
+  <si>
+    <t>LEM-INC-001</t>
+  </si>
+  <si>
+    <t>FD-INC-001</t>
+  </si>
+  <si>
+    <t>TC-INC-001</t>
+  </si>
+  <si>
+    <t>AM-INC-001</t>
+  </si>
+  <si>
+    <t>DI-INC-001</t>
+  </si>
+  <si>
+    <t>PC-INC-001</t>
+  </si>
+  <si>
+    <t>INI-INC-001</t>
+  </si>
+  <si>
+    <t>Iniciacion Instrumental</t>
+  </si>
+  <si>
+    <t>SR-INC-002</t>
+  </si>
+  <si>
+    <t>LEM-INC-002</t>
+  </si>
+  <si>
+    <t>FD-INC-002</t>
+  </si>
+  <si>
+    <t>TC-INC-002</t>
+  </si>
+  <si>
+    <t>AM-INC-002</t>
+  </si>
+  <si>
+    <t>DI-INC-002</t>
+  </si>
+  <si>
+    <t>PC-INC-002</t>
+  </si>
+  <si>
+    <t>Practica Coral</t>
   </si>
 </sst>
 </file>
@@ -429,20 +552,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA8CF66-513C-4C40-9688-A116B35459D8}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="21.875" customWidth="1"/>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="21.875" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,30 +574,456 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="B2" t="s">
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/db/Materia.xlsx
+++ b/db/Materia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PosGrado\Proyecto Titulacion\Timetabling\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\Posgrado\Proyecto Titulacion\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5BB8EE-EACC-4C89-9570-AF8FADE80E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B820409-5F7C-4A01-BBD5-2146A7DA3FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="4710" windowWidth="28785" windowHeight="15345" xr2:uid="{73FF22F9-0A89-43F3-8B4B-2BA89E274F19}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{73FF22F9-0A89-43F3-8B4B-2BA89E274F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="78">
   <si>
     <t>materia_id</t>
   </si>
@@ -181,13 +181,100 @@
   </si>
   <si>
     <t>Practica Coral</t>
+  </si>
+  <si>
+    <t>SR-INC-003</t>
+  </si>
+  <si>
+    <t>TM-INC-003</t>
+  </si>
+  <si>
+    <t>Teoria de la Musica</t>
+  </si>
+  <si>
+    <t>FD-INC-003</t>
+  </si>
+  <si>
+    <t>TC-INC-003</t>
+  </si>
+  <si>
+    <t>AMC-INC-003</t>
+  </si>
+  <si>
+    <t>DI-INC-003</t>
+  </si>
+  <si>
+    <t>PC-INC-003</t>
+  </si>
+  <si>
+    <t>IO-INC-003</t>
+  </si>
+  <si>
+    <t>Iniciacion Orquestal</t>
+  </si>
+  <si>
+    <t>Taller</t>
+  </si>
+  <si>
+    <t>SR-BC-001</t>
+  </si>
+  <si>
+    <t>TM-BC-001</t>
+  </si>
+  <si>
+    <t>DM-BC-001</t>
+  </si>
+  <si>
+    <t>Dictado Musical</t>
+  </si>
+  <si>
+    <t>AM-BC-001</t>
+  </si>
+  <si>
+    <t>CN-BC-001</t>
+  </si>
+  <si>
+    <t>PO-BC-001</t>
+  </si>
+  <si>
+    <t>Practica Orquestal</t>
+  </si>
+  <si>
+    <t>OF-BC-001</t>
+  </si>
+  <si>
+    <t>Orquesta Folklórica (A)</t>
+  </si>
+  <si>
+    <t>SR-BC-002</t>
+  </si>
+  <si>
+    <t>TM-BC-002</t>
+  </si>
+  <si>
+    <t>DM-BC-002</t>
+  </si>
+  <si>
+    <t>AM-BC-002</t>
+  </si>
+  <si>
+    <t>CN-BC-002</t>
+  </si>
+  <si>
+    <t>Practica Coral (CN)</t>
+  </si>
+  <si>
+    <t>PO-BC-002</t>
+  </si>
+  <si>
+    <t>OF-BC-002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -552,21 +639,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA8CF66-513C-4C40-9688-A116B35459D8}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="2" max="2" width="18.25" customWidth="1"/>
-    <col min="3" max="3" width="21.875" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -580,7 +667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -594,7 +681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -608,7 +695,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -622,7 +709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -636,7 +723,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -653,7 +740,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -667,7 +754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -681,7 +768,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -695,7 +782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -709,7 +796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -726,7 +813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -740,7 +827,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -754,7 +841,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -768,7 +855,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -782,7 +869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -796,7 +883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -813,7 +900,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -827,7 +914,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -841,7 +928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -855,7 +942,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -869,7 +956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -883,7 +970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -897,7 +984,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -911,7 +998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -928,7 +1015,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -942,7 +1029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -956,7 +1043,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -970,7 +1057,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -984,7 +1071,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -998,7 +1085,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -1012,7 +1099,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -1024,6 +1111,305 @@
       </c>
       <c r="D32" t="s">
         <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/db/Materia.xlsx
+++ b/db/Materia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\Posgrado\Proyecto Titulacion\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PosGrado\Proyecto Titulacion\Timetabling\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B820409-5F7C-4A01-BBD5-2146A7DA3FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691C7E9D-0085-4C58-984C-31B22F159AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{73FF22F9-0A89-43F3-8B4B-2BA89E274F19}"/>
+    <workbookView xWindow="3000" yWindow="4710" windowWidth="28785" windowHeight="15345" xr2:uid="{73FF22F9-0A89-43F3-8B4B-2BA89E274F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="143">
   <si>
     <t>materia_id</t>
   </si>
@@ -237,15 +237,9 @@
     <t>PO-BC-001</t>
   </si>
   <si>
-    <t>Practica Orquestal</t>
-  </si>
-  <si>
     <t>OF-BC-001</t>
   </si>
   <si>
-    <t>Orquesta Folklórica (A)</t>
-  </si>
-  <si>
     <t>SR-BC-002</t>
   </si>
   <si>
@@ -268,13 +262,214 @@
   </si>
   <si>
     <t>OF-BC-002</t>
+  </si>
+  <si>
+    <t>SR-BC-003</t>
+  </si>
+  <si>
+    <t>TM-BC-003</t>
+  </si>
+  <si>
+    <t>DM-BC-003</t>
+  </si>
+  <si>
+    <t>ITV-BC-001</t>
+  </si>
+  <si>
+    <t>Iniciación a la Tecnica Vocal</t>
+  </si>
+  <si>
+    <t>CN-BC-003</t>
+  </si>
+  <si>
+    <t>PO-BC-003</t>
+  </si>
+  <si>
+    <t>Practica Orquestal (A)</t>
+  </si>
+  <si>
+    <t>OF-BC-003</t>
+  </si>
+  <si>
+    <t>SR-ITC-001</t>
+  </si>
+  <si>
+    <t>TM-ITC-001</t>
+  </si>
+  <si>
+    <t>DIM-ITC-001</t>
+  </si>
+  <si>
+    <t>AMT-ITC-001</t>
+  </si>
+  <si>
+    <t>FD-ITC-001</t>
+  </si>
+  <si>
+    <t>TC-ITC-001</t>
+  </si>
+  <si>
+    <t>PC-ITC-001</t>
+  </si>
+  <si>
+    <t>IO-ITC-001</t>
+  </si>
+  <si>
+    <t>INI-ITC-001</t>
+  </si>
+  <si>
+    <t>SR-ITC-002</t>
+  </si>
+  <si>
+    <t>TM-ITC-002</t>
+  </si>
+  <si>
+    <t>DM-ITC-002</t>
+  </si>
+  <si>
+    <t>FD-ITC-002</t>
+  </si>
+  <si>
+    <t>TC-ITC-002</t>
+  </si>
+  <si>
+    <t>CJ-ITC-001</t>
+  </si>
+  <si>
+    <t>Practica Coral (CJ)</t>
+  </si>
+  <si>
+    <t>PO-ITC-001</t>
+  </si>
+  <si>
+    <t>OF-ITC-001</t>
+  </si>
+  <si>
+    <t>SR-ITC-003</t>
+  </si>
+  <si>
+    <t>TM-ITC-003</t>
+  </si>
+  <si>
+    <t>DM-ITC-003</t>
+  </si>
+  <si>
+    <t>FD-ITC-003</t>
+  </si>
+  <si>
+    <t>TC-ITC-003</t>
+  </si>
+  <si>
+    <t>CJ-ITC-002</t>
+  </si>
+  <si>
+    <t>PO-ITC-002</t>
+  </si>
+  <si>
+    <t>OF-ITC-002</t>
+  </si>
+  <si>
+    <t>SR-IMC-001</t>
+  </si>
+  <si>
+    <t>DM-IMC-001</t>
+  </si>
+  <si>
+    <t>ARM-IMC-001</t>
+  </si>
+  <si>
+    <t>Armonia</t>
+  </si>
+  <si>
+    <t>TV-IMC-001</t>
+  </si>
+  <si>
+    <t>Tecnica Vocal</t>
+  </si>
+  <si>
+    <t>HA-IMC-001</t>
+  </si>
+  <si>
+    <t>Historia del Arte</t>
+  </si>
+  <si>
+    <t>CJ-IMC-001</t>
+  </si>
+  <si>
+    <t>PO-IMC-001</t>
+  </si>
+  <si>
+    <t>Practica Orquestal (B)</t>
+  </si>
+  <si>
+    <t>OF-IMC-001</t>
+  </si>
+  <si>
+    <t>SR-IMC-002</t>
+  </si>
+  <si>
+    <t>DM-IMC-002</t>
+  </si>
+  <si>
+    <t>ARM-IMC-002</t>
+  </si>
+  <si>
+    <t>ANM-IMC-001</t>
+  </si>
+  <si>
+    <t>Analisis Musical</t>
+  </si>
+  <si>
+    <t>HA-IMC-002</t>
+  </si>
+  <si>
+    <t>CJ-IMC-002</t>
+  </si>
+  <si>
+    <t>PO-IMC-002</t>
+  </si>
+  <si>
+    <t>OF-IMC-002</t>
+  </si>
+  <si>
+    <t>Orquesta Folklorica (B)</t>
+  </si>
+  <si>
+    <t>Orquesta Folklorica (A)</t>
+  </si>
+  <si>
+    <t>SR-IMC-003</t>
+  </si>
+  <si>
+    <t>DM-IMC-003</t>
+  </si>
+  <si>
+    <t>AR-IMC-003</t>
+  </si>
+  <si>
+    <t>ANM-IMC-002</t>
+  </si>
+  <si>
+    <t>HM-IMC-001</t>
+  </si>
+  <si>
+    <t>Historia de la Musica</t>
+  </si>
+  <si>
+    <t>CJ-IMC-003</t>
+  </si>
+  <si>
+    <t>PO-IMC-003</t>
+  </si>
+  <si>
+    <t>OF-IMC-003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -639,21 +834,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA8CF66-513C-4C40-9688-A116B35459D8}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.21875" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="3" max="3" width="21.875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -667,7 +862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -681,7 +876,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -695,7 +890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -709,7 +904,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -723,7 +918,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -740,7 +935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -754,7 +949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -768,7 +963,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -782,7 +977,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -796,7 +991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -813,7 +1008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -827,7 +1022,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -841,7 +1036,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -855,7 +1050,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -869,7 +1064,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -883,7 +1078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -900,7 +1095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -914,7 +1109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -928,7 +1123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -942,7 +1137,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -956,7 +1151,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -970,7 +1165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -984,7 +1179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -998,7 +1193,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1015,7 +1210,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -1029,7 +1224,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -1043,7 +1238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -1057,7 +1252,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -1071,7 +1266,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -1085,7 +1280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -1099,7 +1294,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -1116,7 +1311,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -1130,7 +1325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -1144,7 +1339,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -1158,7 +1353,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -1172,7 +1367,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -1186,7 +1381,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -1200,7 +1395,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -1214,7 +1409,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -1231,7 +1426,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -1245,7 +1440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -1259,7 +1454,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -1273,7 +1468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>64</v>
       </c>
@@ -1287,7 +1482,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>65</v>
       </c>
@@ -1301,12 +1496,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1315,12 +1510,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -1332,9 +1527,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B48" t="s">
         <v>31</v>
@@ -1342,10 +1537,13 @@
       <c r="C48">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B49" t="s">
         <v>51</v>
@@ -1353,10 +1551,13 @@
       <c r="C49">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B50" t="s">
         <v>63</v>
@@ -1364,10 +1565,13 @@
       <c r="C50">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B51" t="s">
         <v>19</v>
@@ -1375,24 +1579,30 @@
       <c r="C51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C52">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B53" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -1401,15 +1611,826 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
         <v>77</v>
       </c>
-      <c r="B54" t="s">
-        <v>69</v>
-      </c>
-      <c r="C54">
-        <v>2</v>
+      <c r="B56" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>84</v>
+      </c>
+      <c r="B61" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62" t="s">
+        <v>31</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>89</v>
+      </c>
+      <c r="B66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" t="s">
+        <v>58</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="D69" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>94</v>
+      </c>
+      <c r="B71" t="s">
+        <v>31</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>95</v>
+      </c>
+      <c r="B72" t="s">
+        <v>51</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>96</v>
+      </c>
+      <c r="B73" t="s">
+        <v>63</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>98</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>99</v>
+      </c>
+      <c r="B76" t="s">
+        <v>100</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>101</v>
+      </c>
+      <c r="B77" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+      <c r="D77" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>102</v>
+      </c>
+      <c r="B78" t="s">
+        <v>133</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>103</v>
+      </c>
+      <c r="B79" t="s">
+        <v>31</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>104</v>
+      </c>
+      <c r="B80" t="s">
+        <v>51</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>105</v>
+      </c>
+      <c r="B81" t="s">
+        <v>63</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>106</v>
+      </c>
+      <c r="B82" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>107</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>108</v>
+      </c>
+      <c r="B84" t="s">
+        <v>100</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>109</v>
+      </c>
+      <c r="B85" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85">
+        <v>4</v>
+      </c>
+      <c r="D85" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>110</v>
+      </c>
+      <c r="B86" t="s">
+        <v>133</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>111</v>
+      </c>
+      <c r="B87" t="s">
+        <v>31</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="D87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>112</v>
+      </c>
+      <c r="B88" t="s">
+        <v>63</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>113</v>
+      </c>
+      <c r="B89" t="s">
+        <v>114</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>115</v>
+      </c>
+      <c r="B90" t="s">
+        <v>116</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>117</v>
+      </c>
+      <c r="B91" t="s">
+        <v>118</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>119</v>
+      </c>
+      <c r="B92" t="s">
+        <v>100</v>
+      </c>
+      <c r="C92">
+        <v>3</v>
+      </c>
+      <c r="D92" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>120</v>
+      </c>
+      <c r="B93" t="s">
+        <v>121</v>
+      </c>
+      <c r="C93">
+        <v>4</v>
+      </c>
+      <c r="D93" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>122</v>
+      </c>
+      <c r="B94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>123</v>
+      </c>
+      <c r="B95" t="s">
+        <v>31</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+      <c r="D95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>124</v>
+      </c>
+      <c r="B96" t="s">
+        <v>63</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>125</v>
+      </c>
+      <c r="B97" t="s">
+        <v>114</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>126</v>
+      </c>
+      <c r="B98" t="s">
+        <v>127</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>128</v>
+      </c>
+      <c r="B99" t="s">
+        <v>118</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>129</v>
+      </c>
+      <c r="B100" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>130</v>
+      </c>
+      <c r="B101" t="s">
+        <v>121</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+      <c r="D101" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>131</v>
+      </c>
+      <c r="B102" t="s">
+        <v>132</v>
+      </c>
+      <c r="C102">
+        <v>3</v>
+      </c>
+      <c r="D102" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>134</v>
+      </c>
+      <c r="B103" t="s">
+        <v>31</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>135</v>
+      </c>
+      <c r="B104" t="s">
+        <v>63</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>136</v>
+      </c>
+      <c r="B105" t="s">
+        <v>114</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>137</v>
+      </c>
+      <c r="B106" t="s">
+        <v>127</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>138</v>
+      </c>
+      <c r="B107" t="s">
+        <v>139</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>140</v>
+      </c>
+      <c r="B108" t="s">
+        <v>100</v>
+      </c>
+      <c r="C108">
+        <v>3</v>
+      </c>
+      <c r="D108" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>141</v>
+      </c>
+      <c r="B109" t="s">
+        <v>121</v>
+      </c>
+      <c r="C109">
+        <v>4</v>
+      </c>
+      <c r="D109" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>142</v>
+      </c>
+      <c r="B110" t="s">
+        <v>132</v>
+      </c>
+      <c r="C110">
+        <v>3</v>
+      </c>
+      <c r="D110" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/db/Materia.xlsx
+++ b/db/Materia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PosGrado\Proyecto Titulacion\Timetabling\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691C7E9D-0085-4C58-984C-31B22F159AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518D213B-4B4C-4F2F-A91A-61743DCAD759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="4710" windowWidth="28785" windowHeight="15345" xr2:uid="{73FF22F9-0A89-43F3-8B4B-2BA89E274F19}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{73FF22F9-0A89-43F3-8B4B-2BA89E274F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -836,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA8CF66-513C-4C40-9688-A116B35459D8}">
   <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>

--- a/db/Materia.xlsx
+++ b/db/Materia.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PosGrado\Proyecto Titulacion\Timetabling\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\Posgrado\Proyecto Titulacion\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518D213B-4B4C-4F2F-A91A-61743DCAD759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5347E791-ABBC-4ABE-9E14-9B6789783D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{73FF22F9-0A89-43F3-8B4B-2BA89E274F19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{73FF22F9-0A89-43F3-8B4B-2BA89E274F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$E$110</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -469,7 +472,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -837,18 +840,18 @@
   <dimension ref="A1:E110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="2" max="2" width="23.125" customWidth="1"/>
-    <col min="3" max="3" width="21.875" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -862,7 +865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -876,7 +879,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -890,7 +893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -904,7 +907,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -918,7 +921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -935,7 +938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -949,7 +952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -963,7 +966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -977,7 +980,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -991,7 +994,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1008,7 +1011,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1022,7 +1025,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1036,7 +1039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1050,7 +1053,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1064,7 +1067,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1078,7 +1081,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1095,7 +1098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1109,7 +1112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1123,7 +1126,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1137,7 +1140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1151,7 +1154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -1165,7 +1168,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1179,7 +1182,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1193,7 +1196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1210,7 +1213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -1224,7 +1227,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -1238,7 +1241,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -1252,7 +1255,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -1266,7 +1269,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -1280,7 +1283,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -1294,7 +1297,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -1311,7 +1314,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -1325,7 +1328,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -1339,7 +1342,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -1353,7 +1356,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -1367,7 +1370,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -1381,7 +1384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -1395,7 +1398,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -1409,7 +1412,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -1426,7 +1429,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -1440,7 +1443,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -1454,7 +1457,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -1468,7 +1471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>64</v>
       </c>
@@ -1482,12 +1485,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>65</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -1496,7 +1499,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>66</v>
       </c>
@@ -1510,7 +1513,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>67</v>
       </c>
@@ -1527,7 +1530,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>68</v>
       </c>
@@ -1541,7 +1544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>69</v>
       </c>
@@ -1555,7 +1558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>70</v>
       </c>
@@ -1569,7 +1572,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>71</v>
       </c>
@@ -1583,7 +1586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>72</v>
       </c>
@@ -1597,7 +1600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>74</v>
       </c>
@@ -1611,7 +1614,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>75</v>
       </c>
@@ -1628,7 +1631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>76</v>
       </c>
@@ -1642,7 +1645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>77</v>
       </c>
@@ -1656,7 +1659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>78</v>
       </c>
@@ -1670,7 +1673,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>79</v>
       </c>
@@ -1684,7 +1687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>81</v>
       </c>
@@ -1698,7 +1701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>82</v>
       </c>
@@ -1712,7 +1715,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>84</v>
       </c>
@@ -1729,7 +1732,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>85</v>
       </c>
@@ -1743,7 +1746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>86</v>
       </c>
@@ -1757,7 +1760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>87</v>
       </c>
@@ -1771,7 +1774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>88</v>
       </c>
@@ -1785,7 +1788,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>89</v>
       </c>
@@ -1799,7 +1802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>90</v>
       </c>
@@ -1813,7 +1816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>91</v>
       </c>
@@ -1827,7 +1830,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>92</v>
       </c>
@@ -1841,7 +1844,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>93</v>
       </c>
@@ -1858,7 +1861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>94</v>
       </c>
@@ -1872,7 +1875,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>95</v>
       </c>
@@ -1886,7 +1889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>96</v>
       </c>
@@ -1900,7 +1903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>97</v>
       </c>
@@ -1914,7 +1917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>98</v>
       </c>
@@ -1928,7 +1931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>99</v>
       </c>
@@ -1942,7 +1945,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>101</v>
       </c>
@@ -1956,7 +1959,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>102</v>
       </c>
@@ -1973,7 +1976,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>103</v>
       </c>
@@ -1987,7 +1990,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>104</v>
       </c>
@@ -2001,7 +2004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>105</v>
       </c>
@@ -2015,7 +2018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>106</v>
       </c>
@@ -2029,7 +2032,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>107</v>
       </c>
@@ -2043,7 +2046,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>108</v>
       </c>
@@ -2057,7 +2060,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>109</v>
       </c>
@@ -2071,7 +2074,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>110</v>
       </c>
@@ -2088,7 +2091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>111</v>
       </c>
@@ -2102,7 +2105,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>112</v>
       </c>
@@ -2116,7 +2119,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>113</v>
       </c>
@@ -2130,7 +2133,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>115</v>
       </c>
@@ -2144,7 +2147,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>117</v>
       </c>
@@ -2158,7 +2161,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>119</v>
       </c>
@@ -2172,7 +2175,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>120</v>
       </c>
@@ -2186,7 +2189,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>122</v>
       </c>
@@ -2203,7 +2206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>123</v>
       </c>
@@ -2217,7 +2220,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>124</v>
       </c>
@@ -2231,7 +2234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>125</v>
       </c>
@@ -2245,7 +2248,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>126</v>
       </c>
@@ -2259,7 +2262,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>128</v>
       </c>
@@ -2273,7 +2276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>129</v>
       </c>
@@ -2287,7 +2290,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>130</v>
       </c>
@@ -2301,7 +2304,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>131</v>
       </c>
@@ -2318,7 +2321,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>134</v>
       </c>
@@ -2332,7 +2335,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>135</v>
       </c>
@@ -2346,7 +2349,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>136</v>
       </c>
@@ -2360,7 +2363,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>137</v>
       </c>
@@ -2374,7 +2377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>138</v>
       </c>
@@ -2388,7 +2391,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>140</v>
       </c>
@@ -2402,7 +2405,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>141</v>
       </c>
@@ -2416,7 +2419,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>142</v>
       </c>

--- a/db/Materia.xlsx
+++ b/db/Materia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\Posgrado\Proyecto Titulacion\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\andrew\Documentos\Diplomado\Timetabling\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF947B7F-BDF9-44E8-981E-06E3C0C3B5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA1716B-EB7C-4E15-8EF3-0B2B0D157F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{73FF22F9-0A89-43F3-8B4B-2BA89E274F19}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="28785" windowHeight="15345" xr2:uid="{73FF22F9-0A89-43F3-8B4B-2BA89E274F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -492,17 +492,17 @@
     <t>Orquesta Sinfonica</t>
   </si>
   <si>
-    <t>id_materia</t>
-  </si>
-  <si>
     <t>Orquestal</t>
+  </si>
+  <si>
+    <t>materia_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -869,21 +869,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA8CF66-513C-4C40-9688-A116B35459D8}">
   <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.21875" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="3" max="3" width="21.875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -895,7 +893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -909,7 +907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -923,7 +921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -937,7 +935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -951,7 +949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -965,7 +963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -979,7 +977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -993,7 +991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1007,7 +1005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1021,7 +1019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1035,7 +1033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1049,7 +1047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1063,7 +1061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1077,7 +1075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1091,7 +1089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1105,7 +1103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1119,7 +1117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1133,7 +1131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1147,7 +1145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1161,7 +1159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1175,7 +1173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1189,7 +1187,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1203,7 +1201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -1217,7 +1215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -1231,7 +1229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -1245,7 +1243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1259,7 +1257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -1273,7 +1271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -1287,7 +1285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -1301,7 +1299,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -1315,7 +1313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -1329,7 +1327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -1343,7 +1341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -1357,7 +1355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -1371,7 +1369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -1385,7 +1383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -1399,7 +1397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -1413,7 +1411,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -1427,7 +1425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -1441,7 +1439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -1455,7 +1453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>57</v>
       </c>
@@ -1469,7 +1467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>59</v>
       </c>
@@ -1483,7 +1481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>60</v>
       </c>
@@ -1497,7 +1495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>61</v>
       </c>
@@ -1511,7 +1509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -1525,7 +1523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>63</v>
       </c>
@@ -1539,7 +1537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>64</v>
       </c>
@@ -1553,7 +1551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>65</v>
       </c>
@@ -1567,7 +1565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>66</v>
       </c>
@@ -1581,7 +1579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>68</v>
       </c>
@@ -1595,7 +1593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>69</v>
       </c>
@@ -1609,7 +1607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -1623,7 +1621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>71</v>
       </c>
@@ -1637,7 +1635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>72</v>
       </c>
@@ -1651,7 +1649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>74</v>
       </c>
@@ -1665,7 +1663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>75</v>
       </c>
@@ -1679,7 +1677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>76</v>
       </c>
@@ -1693,7 +1691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -1707,7 +1705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -1721,7 +1719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -1735,7 +1733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>80</v>
       </c>
@@ -1749,7 +1747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -1763,7 +1761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>82</v>
       </c>
@@ -1777,7 +1775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>83</v>
       </c>
@@ -1791,7 +1789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>84</v>
       </c>
@@ -1805,7 +1803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>85</v>
       </c>
@@ -1819,7 +1817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>86</v>
       </c>
@@ -1833,7 +1831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>87</v>
       </c>
@@ -1847,7 +1845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>88</v>
       </c>
@@ -1861,7 +1859,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>89</v>
       </c>
@@ -1875,7 +1873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>91</v>
       </c>
@@ -1889,7 +1887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>92</v>
       </c>
@@ -1903,7 +1901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>93</v>
       </c>
@@ -1917,7 +1915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>94</v>
       </c>
@@ -1931,7 +1929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>95</v>
       </c>
@@ -1945,7 +1943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>96</v>
       </c>
@@ -1959,7 +1957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>97</v>
       </c>
@@ -1973,7 +1971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>98</v>
       </c>
@@ -1987,7 +1985,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>99</v>
       </c>
@@ -2001,7 +1999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>100</v>
       </c>
@@ -2015,7 +2013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -2029,7 +2027,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>103</v>
       </c>
@@ -2043,7 +2041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>105</v>
       </c>
@@ -2057,7 +2055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>107</v>
       </c>
@@ -2071,7 +2069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>108</v>
       </c>
@@ -2085,7 +2083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>109</v>
       </c>
@@ -2099,7 +2097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>110</v>
       </c>
@@ -2113,7 +2111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>111</v>
       </c>
@@ -2127,7 +2125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>112</v>
       </c>
@@ -2141,7 +2139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>114</v>
       </c>
@@ -2155,7 +2153,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>115</v>
       </c>
@@ -2169,7 +2167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>116</v>
       </c>
@@ -2183,7 +2181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>119</v>
       </c>
@@ -2197,7 +2195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>120</v>
       </c>
@@ -2211,7 +2209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>121</v>
       </c>
@@ -2225,7 +2223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>122</v>
       </c>
@@ -2239,7 +2237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>123</v>
       </c>
@@ -2253,7 +2251,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>125</v>
       </c>
@@ -2267,7 +2265,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>126</v>
       </c>
@@ -2281,7 +2279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>138</v>
       </c>
@@ -2292,10 +2290,10 @@
         <v>4</v>
       </c>
       <c r="D101" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>139</v>
       </c>
@@ -2306,10 +2304,10 @@
         <v>4</v>
       </c>
       <c r="D102" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>140</v>
       </c>
@@ -2320,10 +2318,10 @@
         <v>4</v>
       </c>
       <c r="D103" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>141</v>
       </c>
@@ -2334,10 +2332,10 @@
         <v>4</v>
       </c>
       <c r="D104" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>142</v>
       </c>
@@ -2348,10 +2346,10 @@
         <v>4</v>
       </c>
       <c r="D105" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>143</v>
       </c>
@@ -2362,10 +2360,10 @@
         <v>4</v>
       </c>
       <c r="D106" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>144</v>
       </c>
@@ -2376,10 +2374,10 @@
         <v>2</v>
       </c>
       <c r="D107" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>145</v>
       </c>
@@ -2390,10 +2388,10 @@
         <v>4</v>
       </c>
       <c r="D108" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>146</v>
       </c>
@@ -2404,10 +2402,10 @@
         <v>4</v>
       </c>
       <c r="D109" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>147</v>
       </c>
@@ -2418,10 +2416,10 @@
         <v>4</v>
       </c>
       <c r="D110" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>148</v>
       </c>
@@ -2432,10 +2430,10 @@
         <v>2</v>
       </c>
       <c r="D111" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>149</v>
       </c>
@@ -2446,7 +2444,7 @@
         <v>4</v>
       </c>
       <c r="D112" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
